--- a/stock-recruit-fits.xlsx
+++ b/stock-recruit-fits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haleyoleynik/Documents/GitHub/salmon-prize_2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF8FEFE-D825-6643-A3F0-F725988CFD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CAD571-4DE4-9742-9894-8152EFF880EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C2EC95EC-148F-7744-AB79-46FDDB69F021}"/>
   </bookViews>
